--- a/excel/SampleUploadQTNghiKhongLuong.xlsx
+++ b/excel/SampleUploadQTNghiKhongLuong.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/Documents/GIT/namgold/gen-tool/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15068EB9-25B8-C24D-BA9E-1DAF567F2332}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6A3832F3-74EB-8842-84DB-91ED7F5064EA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1180" yWindow="1460" windowWidth="27240" windowHeight="15120" xr2:uid="{9752044C-D579-954E-A67B-0BBE8FBA6CE6}"/>
+    <workbookView xWindow="780" yWindow="960" windowWidth="27640" windowHeight="15620" xr2:uid="{23C4551E-AAD9-084A-B4FD-6E14EBC826D7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -500,7 +500,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal_Sheet1" xfId="1" xr:uid="{30E85E76-C3F2-F444-8604-B6CDF02810FA}"/>
+    <cellStyle name="Normal_Sheet1" xfId="1" xr:uid="{EE2B055D-BE12-7647-995D-9E19EA4C3C90}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -811,11 +811,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC952FA8-07B4-964C-ACE9-F3325FEEB257}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E950ECB0-8B69-E142-97CA-27DAC1E29DE7}">
   <dimension ref="A1:J43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="17" x14ac:dyDescent="0.2"/>
